--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1040615.894437328</v>
+        <v>1014159.008466808</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1918874.523826587</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4008798.132631243</v>
+        <v>2990033.635411731</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10374296.2231505</v>
+        <v>10794469.2273961</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>38.09428873746696</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>278.6372557225947</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.34508049624301</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>237.4552014283703</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>149.1680462068085</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>110.7002136147241</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>58.49852621786729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>83.59830597394803</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>81.59119981643197</v>
+        <v>305.2872491113147</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>115.3436799593537</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>104.5113366705979</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113147</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.89446409565839</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>15.04252548592976</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.1457896373064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>46.25307783771848</v>
+        <v>64.35126176470104</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.5401087245202</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.64843562452558</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>137.988604086499</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.25307783771848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.54139430664144</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>62.84942852843601</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>28.46407351567305</v>
       </c>
       <c r="W43" t="n">
-        <v>159.1450442413715</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>24.75012089215517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.141365880777</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2658.670011485428</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2658.670011485428</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2658.670011485428</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2658.670011485428</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.607124141857</v>
+        <v>2360.668628091549</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.607124141857</v>
+        <v>2007.899972821435</v>
       </c>
       <c r="X2" t="n">
-        <v>1954.141365880777</v>
+        <v>1634.434214560355</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.141365880777</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124031</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124031</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1603.407129497228</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C5" t="n">
-        <v>1603.407129497228</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D5" t="n">
-        <v>1603.407129497228</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>949.7763040344662</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>949.7763040344662</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>531.8124959326531</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>204.6177759686559</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,34 +4731,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>920.5121489496507</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C8" t="n">
-        <v>551.5496320092391</v>
+        <v>798.4928208132003</v>
       </c>
       <c r="D8" t="n">
-        <v>551.5496320092391</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="E8" t="n">
-        <v>165.7613794109948</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>113.0324022424526</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.111989013772</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>554.3221432721089</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>554.3221432721089</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>554.3221432721089</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>554.3221432721089</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F11" t="n">
-        <v>554.3221432721089</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G11" t="n">
-        <v>136.3583351702957</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843236</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573122</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>1331.061315312042</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>940.9219833362306</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>378.1030765138953</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>624.8682044203592</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>932.1883377003206</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393.6767897220517</v>
+        <v>394.2236783705319</v>
       </c>
       <c r="C13" t="n">
-        <v>393.6767897220517</v>
+        <v>394.2236783705319</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6767897220517</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>393.6767897220517</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>393.6767897220517</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>393.6767897220517</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>393.6767897220517</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>393.6767897220517</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>393.6767897220517</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>393.6767897220517</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X13" t="n">
-        <v>393.6767897220517</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y13" t="n">
-        <v>393.6767897220517</v>
+        <v>575.8721432007716</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583422</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>159.5099885583422</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>563.7235867775531</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1661.954360834047</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>336.2769833124031</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="C16" t="n">
-        <v>336.2769833124031</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D16" t="n">
-        <v>336.2769833124031</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>336.2769833124031</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>336.2769833124031</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>336.2769833124031</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T16" t="n">
-        <v>336.2769833124031</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U16" t="n">
-        <v>336.2769833124031</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>336.2769833124031</v>
+        <v>955.1031435655729</v>
       </c>
       <c r="W16" t="n">
-        <v>336.2769833124031</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="X16" t="n">
-        <v>336.2769833124031</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="Y16" t="n">
-        <v>336.2769833124031</v>
+        <v>665.6859735286123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1483.721800370094</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1283.801790285647</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1283.801790285647</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1283.801790285647</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>1283.801790285647</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983193</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="X19" t="n">
-        <v>898.5039869983193</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,40 +5737,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.13917884751</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919603</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507268</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4503.13917884751</v>
+        <v>1233.994985963656</v>
       </c>
       <c r="U22" t="n">
-        <v>4503.13917884751</v>
+        <v>1233.994985963656</v>
       </c>
       <c r="V22" t="n">
-        <v>4503.13917884751</v>
+        <v>1233.994985963656</v>
       </c>
       <c r="W22" t="n">
-        <v>4503.13917884751</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="X22" t="n">
-        <v>4503.13917884751</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y22" t="n">
-        <v>4503.13917884751</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4458.413529040523</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C28" t="n">
-        <v>4289.477346112616</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D28" t="n">
-        <v>4139.36070670028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3991.447613117887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3844.557665619977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3676.382343939797</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3525.964335487741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>4860.854573014292</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>4860.854573014292</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y28" t="n">
-        <v>4640.061993870762</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>847.2212943649431</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3686.322319899658</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C34" t="n">
-        <v>3517.386136971751</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4606.170084808406</v>
+        <v>1070.40520340126</v>
       </c>
       <c r="W34" t="n">
-        <v>4316.752914771445</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="X34" t="n">
-        <v>4088.763363873428</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y34" t="n">
-        <v>3867.970784729898</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4503.13917884751</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4503.13917884751</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4503.13917884751</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>4503.13917884751</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>4503.13917884751</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324571</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324571</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324571</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W43" t="n">
-        <v>714.1745431820127</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X43" t="n">
-        <v>486.1849922839954</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365143</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880509</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
         <v>265.3924131404652</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V46" t="n">
-        <v>909.3712637033467</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W46" t="n">
-        <v>619.9540936663861</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X46" t="n">
-        <v>594.9539715530981</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.9539715530981</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>91.23759968302244</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978419</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.38411383734474</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22606,16 +22606,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>49.11500274754019</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22722,13 +22722,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555213</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22767,13 +22767,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>144.4751686438914</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2.763270038052724</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,22 +22986,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>296.1758321269874</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>93.43279002699396</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23077,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23196,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>61.5316190581546</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6835682680297</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>242.3315729479252</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>56.82580834555245</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>103.2409733927411</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>250.171704950085</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>155.3523570029695</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>56.8258083455521</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>94.92182691786304</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.43886371478837</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>175.2944832206708</v>
+        <v>157.1962992936882</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>44.27839330891752</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>31.70671237410761</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>90.96703739368678</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25131,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>114.149039237329</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>175.2944832206708</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.9521741567361</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>223.673569808155</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>223.673569808155</v>
       </c>
       <c r="W43" t="n">
-        <v>127.3779540952195</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>200.959534496882</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>752713.4422151153</v>
+        <v>752713.4422151152</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752713.4422151153</v>
+        <v>752713.4422151154</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752713.4422151154</v>
+        <v>993665.886184545</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752713.4422151154</v>
+        <v>993665.886184545</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993665.8861845455</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165456</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="G2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245945</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="M2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="N2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="O2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>500180.5412663652</v>
+        <v>3.898095428667148e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130174.4719869591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="C4" t="n">
         <v>44802.65617556861</v>
@@ -26426,40 +26426,40 @@
         <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="M4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-414019.372936977</v>
+        <v>-420087.7866827961</v>
       </c>
       <c r="C6" t="n">
-        <v>175948.5062775674</v>
+        <v>169880.0925317482</v>
       </c>
       <c r="D6" t="n">
-        <v>175948.5062775672</v>
+        <v>169880.0925317482</v>
       </c>
       <c r="E6" t="n">
-        <v>209576.1062775673</v>
+        <v>-243973.9244784737</v>
       </c>
       <c r="F6" t="n">
-        <v>209576.1062775675</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="G6" t="n">
-        <v>-218019.8380082215</v>
+        <v>281186.1119984215</v>
       </c>
       <c r="H6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984222</v>
       </c>
       <c r="I6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="J6" t="n">
-        <v>105737.4840655509</v>
+        <v>104762.8928058292</v>
       </c>
       <c r="K6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="L6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984222</v>
       </c>
       <c r="M6" t="n">
-        <v>282160.7032581437</v>
+        <v>146385.096764585</v>
       </c>
       <c r="N6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984222</v>
       </c>
       <c r="O6" t="n">
-        <v>151986.2312711846</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="P6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.111998422</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>452.6387412370135</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>540.9263704990175</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990175</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990175</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>241.8130382709616</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>278.7330645958082</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014159.008466808</v>
+        <v>1036311.854486259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.635411731</v>
+        <v>3522967.675855584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10794469.2273961</v>
+        <v>10574672.29878194</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>184.5808806410311</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>278.6372557225947</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>149.1680462068085</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>123.1485441819095</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>74.09260911231073</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>20.55921871959391</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>58.49852621786729</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113147</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>228.8069515291738</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>113.6714023978516</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.3436799593537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>264.8835242011452</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113147</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262922</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014448</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.89446409565839</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>48.35772890637045</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273959</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.04252548592976</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>11.82150965373811</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>64.35126176470104</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>10.00886850234444</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>31.24390285116836</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>135.5401087245202</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>102.2259978086887</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>137.988604086499</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>62.84942852843601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>28.46407351567305</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>857.6950425204218</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C2" t="n">
-        <v>857.6950425204218</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D2" t="n">
-        <v>857.6950425204218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2360.668628091549</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2007.899972821435</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1634.434214560355</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1244.294882584544</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.527073573122</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.56455663271</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.56455663271</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E5" t="n">
-        <v>949.7763040344662</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F5" t="n">
-        <v>949.7763040344662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
-        <v>531.8124959326531</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>204.6177759686559</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2341.55044499227</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.455337753612</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C8" t="n">
-        <v>798.4928208132003</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D8" t="n">
-        <v>440.2271222064498</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2271222064498</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F8" t="n">
-        <v>440.2271222064498</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G8" t="n">
-        <v>440.2271222064498</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>113.0324022424526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.455337753612</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>1597.994168061634</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>1229.031651121223</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>870.7659525144722</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>484.9776999162281</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155859</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080544</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>2605.851472959319</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>2374.733340101568</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>1984.594008125756</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K12" t="n">
-        <v>378.1030765138953</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L12" t="n">
-        <v>624.8682044203592</v>
+        <v>278.8292128056702</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003206</v>
+        <v>919.374562272774</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1592.580254525556</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2142.016263278278</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2565.984031759114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.2236783705319</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C13" t="n">
-        <v>394.2236783705319</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>819.2419883800759</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>704.4223899984077</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364824</v>
+        <v>476.4328391003903</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007716</v>
+        <v>255.6402599568602</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.3213845506</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610188</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003438</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405193</v>
+        <v>752.5368152709202</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155859</v>
+        <v>341.5509104813127</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080544</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643321</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899124</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121728</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851613</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590533</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614722</v>
+        <v>2252.153123480448</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256433</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>287.777852827703</v>
+        <v>316.6325031462306</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775531</v>
+        <v>820.9940430123484</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170014</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834047</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286123</v>
+        <v>269.7279334390465</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>269.7279334390465</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>269.7279334390465</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557901</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557901</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>559.1451034760071</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655729</v>
+        <v>559.1451034760071</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286123</v>
+        <v>269.7279334390465</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286123</v>
+        <v>269.7279334390465</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286123</v>
+        <v>269.7279334390465</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,10 +5536,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,7 +5679,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471189</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1483.721800370094</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1283.801790285647</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.801790285647</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1283.801790285647</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1283.801790285647</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>994.3846202486859</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>766.3950693506686</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y19" t="n">
-        <v>766.3950693506686</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>316.9584588710877</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1233.994985963656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1233.994985963656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1233.994985963656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>944.5778159266949</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X22" t="n">
-        <v>944.5778159266949</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y22" t="n">
-        <v>723.7852367831648</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9054447954965</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,25 +6466,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.2212943649431</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
         <v>412.2823606383756</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1075.21084526296</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X31" t="n">
-        <v>847.2212943649431</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y31" t="n">
-        <v>847.2212943649431</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.1954542207687</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C34" t="n">
-        <v>560.1954542207687</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1070.40520340126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>780.9880333642989</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>780.9880333642989</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.1954542207687</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="35">
@@ -6928,34 +6928,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>667.8334571142351</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>667.8334571142351</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,16 +7399,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7417,25 +7417,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>957.2506271511957</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>667.8334571142351</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8334571142351</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.040877970705</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1326.612261067772</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1037.48362228133</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>782.7991340754431</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>493.3819640384826</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K12" t="n">
-        <v>91.23759968302244</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>68.29886828945477</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>176.8008973295491</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978419</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445224</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>29.47535963978228</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>277.671796620807</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>170.1021609796518</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,10 +22603,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>49.11500274754019</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22761,7 +22761,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22789,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>2.763270038052724</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>226.0924245355035</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22959,13 +22959,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,22 +22986,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>178.0450342115173</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>334.1238229010891</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>93.43279002699396</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23196,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>61.5316190581546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>140.9241491492952</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>172.8515959387395</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.2409733927411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>148.0333797447915</v>
       </c>
       <c r="H14" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3523570029695</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>98.07623374019872</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.92182691786304</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>206.7631436983567</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>157.1962992936882</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.5141298342465</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>117.371570167044</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>5.842169091310382</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>115.2640032163538</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>31.70671237410761</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>116.3586555434061</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25131,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>114.149039237329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641912</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.673569808155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>96.20922451922991</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>223.673569808155</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>752713.4422151152</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993665.886184545</v>
+        <v>867621.1222624922</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993665.886184545</v>
+        <v>867621.1222624922</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993665.8861845451</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
-        <v>410580.5127245942</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="F2" t="n">
-        <v>410580.5127245942</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="G2" t="n">
         <v>410580.5127245942</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="K2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="L2" t="n">
         <v>410580.5127245944</v>
       </c>
       <c r="M2" t="n">
+        <v>410580.5127245944</v>
+      </c>
+      <c r="N2" t="n">
         <v>410580.5127245943</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410580.5127245944</v>
       </c>
       <c r="O2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>248146.7686188426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.898095428667148e-10</v>
+        <v>263762.8892659103</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>62453.05588965292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="C4" t="n">
         <v>44802.65617556861</v>
@@ -26426,10 +26426,10 @@
         <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
@@ -26453,13 +26453,13 @@
         <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420087.7866827961</v>
+        <v>-414626.214311559</v>
       </c>
       <c r="C6" t="n">
-        <v>169880.0925317482</v>
+        <v>175341.6649029853</v>
       </c>
       <c r="D6" t="n">
-        <v>169880.0925317482</v>
+        <v>175341.6649029854</v>
       </c>
       <c r="E6" t="n">
-        <v>-243973.9244784737</v>
+        <v>-3868.091839804649</v>
       </c>
       <c r="F6" t="n">
-        <v>281186.1119984221</v>
+        <v>244278.676779038</v>
       </c>
       <c r="G6" t="n">
-        <v>281186.1119984215</v>
+        <v>18300.35486626123</v>
       </c>
       <c r="H6" t="n">
-        <v>281186.1119984222</v>
+        <v>282063.2441321714</v>
       </c>
       <c r="I6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="J6" t="n">
-        <v>104762.8928058292</v>
+        <v>105640.0249395787</v>
       </c>
       <c r="K6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321717</v>
       </c>
       <c r="L6" t="n">
-        <v>281186.1119984222</v>
+        <v>282063.2441321717</v>
       </c>
       <c r="M6" t="n">
-        <v>146385.096764585</v>
+        <v>219610.1882425188</v>
       </c>
       <c r="N6" t="n">
-        <v>281186.1119984222</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="O6" t="n">
-        <v>281186.1119984221</v>
+        <v>212198.3592822602</v>
       </c>
       <c r="P6" t="n">
-        <v>281186.111998422</v>
+        <v>282063.2441321716</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>593.4761003380635</v>
+      </c>
+      <c r="F3" t="n">
+        <v>593.4761003380634</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054540997</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>215.7324361209768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>236.9063051160366</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961202</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041485</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304437</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565515</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540882</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946989</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446476</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104644</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354101</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4953007812706</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358982</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724843</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855523</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361485</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081163</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990344</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>211.652223606563</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337665</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336899</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892241</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
@@ -32241,16 +32241,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946991</v>
@@ -32265,7 +32265,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
         <v>0.2670576580354892</v>
@@ -32311,25 +32311,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458548</v>
@@ -32338,13 +32338,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,19 +32390,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
@@ -32411,22 +32411,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>241.8130382709616</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>91.26547556417854</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415077</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303327</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109069</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221112</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951468</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349796</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490657</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>245.0916242622324</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958082</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004659</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980126</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178374</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507396</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556546</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299104</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187468</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>180.0507982277215</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36606,7 +36606,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>526.9295015768313</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
